--- a/ANALISIS - VENTAS.xlsx
+++ b/ANALISIS - VENTAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angular\gnuino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\angular\gnuino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>MANTENIMIENTO PRECIO VENTA</t>
   </si>
@@ -346,21 +346,6 @@
   </si>
   <si>
     <t>ORDEN VENTA</t>
-  </si>
-  <si>
-    <t>ENDPOINT QUE CONSULTE COTIZACIONES PENDIENTES</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>CUANDO SE GENERA LA ORDEN VENTA LA COTIZACION SE CIERRA</t>
-  </si>
-  <si>
-    <t>SI SE ANULA LA ORDEN VENTA LA COTIZACION PASA PENDIENTE</t>
-  </si>
-  <si>
-    <t>HACER LA RESTA CON EL KARDEX  COTIZACION</t>
   </si>
 </sst>
 </file>
@@ -522,6 +507,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,7 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,21 +858,21 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="8"/>
-    <col min="5" max="5" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="8"/>
+    <col min="5" max="5" width="9.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -905,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
@@ -923,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
@@ -941,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -959,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -977,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -995,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>103</v>
       </c>
@@ -1013,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
@@ -1033,7 +1018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>94</v>
       </c>
@@ -1050,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>95</v>
       </c>
@@ -1067,12 +1052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10">
         <f>SUM(E3:E12)</f>
@@ -1096,20 +1081,20 @@
       <selection activeCell="B3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1122,8 +1107,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,8 +1119,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1131,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1158,14 +1143,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -1178,8 +1163,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1190,8 +1175,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1216,24 +1201,24 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1242,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1330,7 +1315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1372,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1410,126 +1395,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B12" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1550,26 +1511,26 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1585,7 +1546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1617,29 +1578,29 @@
       <selection activeCell="N30" sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
@@ -1648,7 +1609,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1670,24 +1631,24 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +1665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1718,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1735,7 +1696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1780,7 +1741,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1788,7 +1749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1799,7 +1760,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1807,7 +1768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1823,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1831,7 +1792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1866,41 +1827,41 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ANALISIS - VENTAS.xlsx
+++ b/ANALISIS - VENTAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5100" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5100" tabRatio="818" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="9" r:id="rId1"/>
@@ -544,15 +544,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145772</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517247</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -576,8 +576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1516380"/>
-          <a:ext cx="7598132" cy="3619894"/>
+          <a:off x="4653915" y="1007745"/>
+          <a:ext cx="7293332" cy="3764674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,7 +855,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B9" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="A1:N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ANALISIS - VENTAS.xlsx
+++ b/ANALISIS - VENTAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\angular\gnuino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angular\gnuino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5100" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="5100" tabRatio="818" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>MANTENIMIENTO PRECIO VENTA</t>
   </si>
@@ -261,15 +261,9 @@
     <t>ESTE LISTADO SOLO LO VERA EL DELIVERY QUE AH SIDO ASIGNADO EN LA VENTANA PRE-DELIVERY</t>
   </si>
   <si>
-    <t>FECHA VENTA</t>
-  </si>
-  <si>
     <t>EL PRODUCTO QUE SE GUARDA SE RESTA DIRECTO DEL KARDEX</t>
   </si>
   <si>
-    <t>SI LA COTIZACION SE ANULA LOS PRODUCTOS REGRESAN AL KARDEX</t>
-  </si>
-  <si>
     <t>AUN VA A CONFIRMAR COMO VA HACER</t>
   </si>
   <si>
@@ -346,6 +340,27 @@
   </si>
   <si>
     <t>ORDEN VENTA</t>
+  </si>
+  <si>
+    <t>FECHA_VENTA</t>
+  </si>
+  <si>
+    <t>MONTO TOTAL</t>
+  </si>
+  <si>
+    <t>DESCUENTO VENTA</t>
+  </si>
+  <si>
+    <t>PRECIO VENTA</t>
+  </si>
+  <si>
+    <t>NRO_VENTA</t>
+  </si>
+  <si>
+    <t>CODIGO_VENTA_NUM</t>
+  </si>
+  <si>
+    <t>IDESTADOFLUJO</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -523,6 +538,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,23 +874,23 @@
       <selection activeCell="B9" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="8"/>
-    <col min="5" max="5" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="8"/>
+    <col min="5" max="5" width="9.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="12">
         <v>44383</v>
@@ -883,16 +899,16 @@
         <v>44383</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:E9" si="0">_xlfn.DAYS(C3,B3)+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="12">
         <v>44384</v>
@@ -901,16 +917,16 @@
         <v>44388</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="12">
         <v>44389</v>
@@ -919,16 +935,16 @@
         <v>44393</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="12">
         <v>44393</v>
@@ -937,16 +953,16 @@
         <v>44397</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12">
         <v>44398</v>
@@ -955,16 +971,16 @@
         <v>44402</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="12">
         <v>44403</v>
@@ -973,16 +989,16 @@
         <v>44407</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="12">
         <v>44408</v>
@@ -991,70 +1007,70 @@
         <v>44412</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1081,19 +1097,19 @@
       <selection activeCell="B3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1119,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1131,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1143,13 +1159,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>16</v>
@@ -1175,7 +1191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -1204,21 +1220,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1258,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1369,10 +1385,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1401,20 +1417,20 @@
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1422,15 +1438,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
@@ -1438,7 +1454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>61</v>
       </c>
@@ -1454,7 +1470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>62</v>
       </c>
@@ -1462,7 +1478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>63</v>
       </c>
@@ -1470,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>69</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
@@ -1511,13 +1527,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
@@ -1525,12 +1541,12 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1538,15 +1554,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1554,12 +1570,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1574,13 +1590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
@@ -1590,28 +1606,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1625,20 +1641,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -1648,7 +1664,7 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1665,13 +1681,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="E4" t="s">
         <v>48</v>
       </c>
@@ -1679,30 +1693,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="E6" t="s">
         <v>49</v>
       </c>
@@ -1710,103 +1717,101 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1827,11 +1832,11 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1839,7 +1844,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1847,7 +1852,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1855,7 +1860,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
